--- a/public/data/scenario/T1/TN_GEN_CHAR.xlsx
+++ b/public/data/scenario/T1/TN_GEN_CHAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gblee\workspace\genei_web\public\data\scenario\T1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\workspace\geneiWeb\public\data\scenario\T1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B25CB94-4062-4C2B-BFFE-597CD95B0F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CA710A-1D25-4DC1-BC16-E0F2750CF6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$561</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AE$561</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="1184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="1187">
   <si>
     <t>RN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3711,6 +3711,18 @@
   </si>
   <si>
     <t>CHA_JAP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHA_BIRTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>268.01.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHA_AMBITION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4119,44 +4131,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC561"/>
+  <dimension ref="A1:AE561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="N90" sqref="N90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="10" width="15" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.8984375" customWidth="1"/>
-    <col min="12" max="12" width="12.09765625" customWidth="1"/>
-    <col min="13" max="13" width="12.09765625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="16.59765625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="15" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="13.59765625" customWidth="1"/>
-    <col min="17" max="17" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="11" width="15" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="15" width="12.125" customWidth="1"/>
+    <col min="16" max="16" width="16.625" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="13.625" customWidth="1"/>
+    <col min="19" max="19" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4179,73 +4191,79 @@
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4261,17 +4279,17 @@
       <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>85</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4284,17 +4302,17 @@
       <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>88</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4307,11 +4325,11 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4324,11 +4342,11 @@
       <c r="F5" t="s">
         <v>610</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4341,12 +4359,12 @@
       <c r="F6" t="s">
         <v>611</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>599</v>
       </c>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4356,11 +4374,11 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4373,11 +4391,11 @@
       <c r="F8" t="s">
         <v>612</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4387,11 +4405,11 @@
       <c r="E9" t="s">
         <v>44</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4401,11 +4419,11 @@
       <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4415,11 +4433,11 @@
       <c r="E11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4429,11 +4447,11 @@
       <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4444,7 +4462,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4455,7 +4473,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4466,7 +4484,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4477,7 +4495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4488,7 +4506,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4502,7 +4520,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4516,7 +4534,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4530,7 +4548,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4541,7 +4559,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4552,7 +4570,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4563,7 +4581,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4574,7 +4592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4585,7 +4603,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4596,7 +4614,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4607,7 +4625,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4618,7 +4636,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4629,7 +4647,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4640,7 +4658,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4651,7 +4669,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4662,7 +4680,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4676,7 +4694,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4687,7 +4705,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4698,7 +4716,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4709,7 +4727,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4720,7 +4738,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4731,7 +4749,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4742,7 +4760,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4753,7 +4771,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4764,7 +4782,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4775,7 +4793,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4786,7 +4804,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4797,7 +4815,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4808,7 +4826,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4819,7 +4837,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4830,7 +4848,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4841,7 +4859,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4852,7 +4870,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4863,7 +4881,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4874,7 +4892,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4885,7 +4903,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4896,7 +4914,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4907,7 +4925,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4918,7 +4936,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4934,59 +4952,59 @@
       <c r="F56" t="s">
         <v>26</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>21</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>80</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>285</v>
       </c>
-      <c r="P56" t="s">
+      <c r="R56" t="s">
         <v>28</v>
       </c>
-      <c r="Q56">
+      <c r="S56">
         <v>76</v>
       </c>
-      <c r="R56">
+      <c r="T56">
         <v>84</v>
       </c>
-      <c r="S56">
+      <c r="U56">
         <v>61</v>
       </c>
-      <c r="T56">
+      <c r="V56">
         <v>78</v>
       </c>
-      <c r="U56">
+      <c r="W56">
         <v>65</v>
       </c>
-      <c r="V56">
+      <c r="X56">
         <v>95</v>
       </c>
-      <c r="W56">
+      <c r="Y56">
         <v>88</v>
       </c>
-      <c r="X56">
+      <c r="Z56">
         <v>71</v>
       </c>
-      <c r="Y56">
+      <c r="AA56">
         <v>73</v>
       </c>
-      <c r="Z56">
+      <c r="AB56">
         <v>400</v>
       </c>
-      <c r="AA56">
+      <c r="AC56">
         <v>0</v>
       </c>
-      <c r="AB56">
+      <c r="AD56">
         <v>800</v>
       </c>
-      <c r="AC56">
+      <c r="AE56">
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4997,7 +5015,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5008,7 +5026,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5019,7 +5037,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5030,7 +5048,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5041,7 +5059,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5052,7 +5070,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5063,7 +5081,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5074,7 +5092,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5090,56 +5108,56 @@
       <c r="F65" t="s">
         <v>607</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>599</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>75</v>
       </c>
-      <c r="P65" t="s">
+      <c r="R65" t="s">
         <v>28</v>
       </c>
-      <c r="Q65">
+      <c r="S65">
         <v>97</v>
       </c>
-      <c r="R65">
+      <c r="T65">
         <v>98</v>
       </c>
-      <c r="S65">
+      <c r="U65">
         <v>95</v>
       </c>
-      <c r="T65">
+      <c r="V65">
         <v>91</v>
       </c>
-      <c r="U65">
+      <c r="W65">
         <v>71</v>
       </c>
-      <c r="V65">
+      <c r="X65">
         <v>57</v>
       </c>
-      <c r="W65">
+      <c r="Y65">
         <v>74</v>
       </c>
-      <c r="X65">
+      <c r="Z65">
         <v>75</v>
       </c>
-      <c r="Y65">
+      <c r="AA65">
         <v>91</v>
       </c>
-      <c r="Z65">
+      <c r="AB65">
         <v>950</v>
       </c>
-      <c r="AA65">
+      <c r="AC65">
         <v>50</v>
       </c>
-      <c r="AB65">
+      <c r="AD65">
         <v>650</v>
       </c>
-      <c r="AC65">
+      <c r="AE65">
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5153,7 +5171,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5164,7 +5182,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5175,7 +5193,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5186,7 +5204,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5197,7 +5215,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5208,7 +5226,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5219,7 +5237,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5230,7 +5248,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5241,7 +5259,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5252,7 +5270,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5263,7 +5281,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5274,7 +5292,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5285,7 +5303,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5296,7 +5314,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5307,7 +5325,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5318,7 +5336,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5329,7 +5347,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5340,7 +5358,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5351,7 +5369,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5362,7 +5380,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5373,7 +5391,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5384,7 +5402,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5395,7 +5413,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5406,7 +5424,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5423,10 +5441,22 @@
         <v>1180</v>
       </c>
       <c r="H90" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I90" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5437,7 +5467,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5448,7 +5478,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5459,7 +5489,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5470,7 +5500,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5481,7 +5511,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5492,7 +5522,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5503,7 +5533,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5514,7 +5544,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5525,7 +5555,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5536,7 +5566,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5547,7 +5577,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5558,7 +5588,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5569,7 +5599,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5580,7 +5610,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5591,7 +5621,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5602,7 +5632,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5613,7 +5643,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5624,7 +5654,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5635,7 +5665,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5646,7 +5676,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5657,7 +5687,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5668,7 +5698,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5679,7 +5709,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5690,7 +5720,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5701,7 +5731,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5712,7 +5742,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5723,7 +5753,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5734,7 +5764,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5745,7 +5775,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5756,7 +5786,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5767,7 +5797,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5778,7 +5808,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5789,7 +5819,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5800,7 +5830,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5811,7 +5841,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5822,7 +5852,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5833,7 +5863,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5844,7 +5874,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5855,7 +5885,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5866,7 +5896,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5877,7 +5907,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5888,7 +5918,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5899,7 +5929,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5910,7 +5940,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5921,7 +5951,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5932,7 +5962,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5943,7 +5973,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5954,7 +5984,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5965,7 +5995,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5976,7 +6006,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5987,7 +6017,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5998,7 +6028,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6009,7 +6039,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6020,7 +6050,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6031,7 +6061,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6042,7 +6072,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6053,7 +6083,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6064,7 +6094,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6075,7 +6105,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6086,7 +6116,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6097,7 +6127,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6108,7 +6138,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6119,7 +6149,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6130,7 +6160,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6141,7 +6171,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6152,7 +6182,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6163,7 +6193,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6174,7 +6204,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6185,7 +6215,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6196,7 +6226,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6207,7 +6237,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6218,7 +6248,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6229,7 +6259,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6240,7 +6270,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6251,7 +6281,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6262,7 +6292,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6273,7 +6303,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6284,7 +6314,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6295,7 +6325,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6306,7 +6336,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6317,7 +6347,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6328,7 +6358,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6339,7 +6369,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6355,44 +6385,44 @@
       <c r="F174" t="s">
         <v>605</v>
       </c>
-      <c r="H174" t="s">
+      <c r="I174" t="s">
         <v>599</v>
       </c>
-      <c r="K174">
+      <c r="L174">
         <v>85</v>
       </c>
-      <c r="P174" t="s">
+      <c r="R174" t="s">
         <v>28</v>
       </c>
-      <c r="Q174">
+      <c r="S174">
         <v>90</v>
       </c>
-      <c r="R174">
+      <c r="T174">
         <v>85</v>
       </c>
-      <c r="S174">
+      <c r="U174">
         <v>88</v>
       </c>
-      <c r="T174">
+      <c r="V174">
         <v>84</v>
       </c>
-      <c r="U174">
+      <c r="W174">
         <v>100</v>
       </c>
-      <c r="V174">
+      <c r="X174">
         <v>61</v>
       </c>
-      <c r="W174">
+      <c r="Y174">
         <v>51</v>
       </c>
-      <c r="X174">
+      <c r="Z174">
         <v>81</v>
       </c>
-      <c r="Y174">
+      <c r="AA174">
         <v>84</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6403,7 +6433,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6414,7 +6444,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6425,7 +6455,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6436,7 +6466,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6447,7 +6477,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6458,7 +6488,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -6469,7 +6499,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -6480,7 +6510,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -6491,7 +6521,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -6502,7 +6532,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -6513,7 +6543,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -6524,7 +6554,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -6535,7 +6565,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -6546,7 +6576,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -6557,7 +6587,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -6568,7 +6598,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -6579,7 +6609,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6590,7 +6620,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6601,7 +6631,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6612,7 +6642,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6623,7 +6653,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -6634,7 +6664,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -6645,7 +6675,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6656,7 +6686,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6667,7 +6697,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -6678,7 +6708,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -6689,7 +6719,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -6700,7 +6730,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -6711,7 +6741,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -6722,7 +6752,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -6733,7 +6763,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -6744,7 +6774,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -6755,7 +6785,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -6766,7 +6796,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -6777,7 +6807,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -6788,7 +6818,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -6799,7 +6829,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -6810,7 +6840,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -6821,7 +6851,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -6832,7 +6862,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -6843,7 +6873,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -6854,7 +6884,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -6865,7 +6895,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -6876,7 +6906,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -6887,7 +6917,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -6898,7 +6928,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -6909,7 +6939,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -6920,7 +6950,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -6931,7 +6961,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -6942,7 +6972,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -6953,7 +6983,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -6964,7 +6994,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -6975,7 +7005,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -6986,7 +7016,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -6997,7 +7027,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -7008,7 +7038,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -7019,7 +7049,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -7030,7 +7060,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -7041,7 +7071,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -7052,7 +7082,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -7062,44 +7092,44 @@
       <c r="E235" t="s">
         <v>261</v>
       </c>
-      <c r="Q235">
+      <c r="S235">
         <v>89</v>
-      </c>
-      <c r="R235">
-        <v>71</v>
-      </c>
-      <c r="S235">
-        <v>74</v>
       </c>
       <c r="T235">
         <v>71</v>
       </c>
       <c r="U235">
+        <v>74</v>
+      </c>
+      <c r="V235">
+        <v>71</v>
+      </c>
+      <c r="W235">
         <v>76</v>
       </c>
-      <c r="V235">
+      <c r="X235">
         <v>91</v>
       </c>
-      <c r="W235">
+      <c r="Y235">
         <v>98</v>
       </c>
-      <c r="X235">
+      <c r="Z235">
         <v>61</v>
       </c>
-      <c r="Y235">
+      <c r="AA235">
         <v>75</v>
-      </c>
-      <c r="AA235">
-        <v>0</v>
-      </c>
-      <c r="AB235">
-        <v>950</v>
       </c>
       <c r="AC235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="AD235">
+        <v>950</v>
+      </c>
+      <c r="AE235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -7110,7 +7140,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -7121,7 +7151,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -7132,7 +7162,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -7143,7 +7173,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -7154,7 +7184,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -7165,7 +7195,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -7176,7 +7206,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -7187,7 +7217,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -7198,7 +7228,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -7209,7 +7239,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -7220,7 +7250,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -7231,7 +7261,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -7242,7 +7272,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -7253,7 +7283,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -7264,7 +7294,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -7275,7 +7305,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -7286,7 +7316,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -7297,7 +7327,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -7308,7 +7338,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -7319,7 +7349,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -7330,7 +7360,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -7341,7 +7371,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -7352,7 +7382,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -7363,7 +7393,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -7374,7 +7404,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -7385,7 +7415,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -7396,7 +7426,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -7407,7 +7437,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -7418,7 +7448,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -7429,7 +7459,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -7440,7 +7470,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -7453,53 +7483,53 @@
       <c r="F267" t="s">
         <v>609</v>
       </c>
-      <c r="H267" t="s">
+      <c r="I267" t="s">
         <v>21</v>
       </c>
-      <c r="K267">
+      <c r="L267">
         <v>85</v>
       </c>
-      <c r="Q267">
+      <c r="S267">
         <v>99</v>
-      </c>
-      <c r="R267">
-        <v>100</v>
-      </c>
-      <c r="S267">
-        <v>95</v>
       </c>
       <c r="T267">
         <v>100</v>
       </c>
       <c r="U267">
+        <v>95</v>
+      </c>
+      <c r="V267">
+        <v>100</v>
+      </c>
+      <c r="W267">
         <v>62</v>
       </c>
-      <c r="V267">
+      <c r="X267">
         <v>51</v>
       </c>
-      <c r="W267">
+      <c r="Y267">
         <v>80</v>
       </c>
-      <c r="X267">
+      <c r="Z267">
         <v>49</v>
       </c>
-      <c r="Y267">
+      <c r="AA267">
         <v>77</v>
       </c>
-      <c r="Z267">
+      <c r="AB267">
         <v>1000</v>
       </c>
-      <c r="AA267">
+      <c r="AC267">
         <v>100</v>
       </c>
-      <c r="AB267">
+      <c r="AD267">
         <v>400</v>
       </c>
-      <c r="AC267">
+      <c r="AE267">
         <v>50</v>
       </c>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -7510,7 +7540,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -7521,7 +7551,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -7532,7 +7562,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -7543,7 +7573,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -7554,7 +7584,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -7565,7 +7595,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -7576,7 +7606,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -7587,7 +7617,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -7598,7 +7628,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -7609,7 +7639,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -7620,7 +7650,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -7631,7 +7661,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -7642,7 +7672,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -7653,7 +7683,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -7664,7 +7694,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -7675,7 +7705,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -7686,7 +7716,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -7697,7 +7727,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -7708,7 +7738,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -7719,7 +7749,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -7730,7 +7760,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -7741,7 +7771,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -7752,7 +7782,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -7763,7 +7793,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -7774,7 +7804,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -7785,7 +7815,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -7796,7 +7826,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -7807,7 +7837,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -7818,7 +7848,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -7829,7 +7859,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -7840,7 +7870,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -7851,7 +7881,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -7862,7 +7892,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -7873,7 +7903,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -7884,7 +7914,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -7895,7 +7925,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -7906,7 +7936,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -7917,7 +7947,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -7928,7 +7958,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -7939,7 +7969,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -7950,7 +7980,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -7961,7 +7991,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -7972,7 +8002,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -7983,7 +8013,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -7994,7 +8024,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -8005,7 +8035,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -8016,7 +8046,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -8027,7 +8057,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -8038,7 +8068,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -8049,7 +8079,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -8060,7 +8090,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -8071,7 +8101,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -8082,7 +8112,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -8093,7 +8123,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -8104,7 +8134,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -8115,7 +8145,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -8126,7 +8156,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -8137,7 +8167,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -8148,7 +8178,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -8159,7 +8189,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -8170,7 +8200,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -8181,7 +8211,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -8192,7 +8222,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -8203,7 +8233,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -8214,7 +8244,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -8225,7 +8255,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -8236,7 +8266,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
@@ -8247,7 +8277,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -8258,7 +8288,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -8269,7 +8299,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -8280,7 +8310,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
@@ -8291,7 +8321,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
@@ -8302,7 +8332,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
@@ -8313,7 +8343,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
@@ -8324,7 +8354,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
@@ -8335,7 +8365,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
@@ -8346,7 +8376,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -8357,7 +8387,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>345</v>
       </c>
@@ -8368,7 +8398,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>346</v>
       </c>
@@ -8379,7 +8409,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
@@ -8390,7 +8420,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
@@ -8401,7 +8431,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>349</v>
       </c>
@@ -8412,7 +8442,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>350</v>
       </c>
@@ -8423,7 +8453,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>351</v>
       </c>
@@ -8434,7 +8464,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>352</v>
       </c>
@@ -8445,7 +8475,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>353</v>
       </c>
@@ -8456,7 +8486,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>354</v>
       </c>
@@ -8467,7 +8497,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>355</v>
       </c>
@@ -8478,7 +8508,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>356</v>
       </c>
@@ -8489,7 +8519,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>357</v>
       </c>
@@ -8500,7 +8530,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>358</v>
       </c>
@@ -8511,7 +8541,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>359</v>
       </c>
@@ -8522,7 +8552,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>360</v>
       </c>
@@ -8533,7 +8563,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>361</v>
       </c>
@@ -8544,7 +8574,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>362</v>
       </c>
@@ -8555,7 +8585,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>363</v>
       </c>
@@ -8566,7 +8596,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>364</v>
       </c>
@@ -8577,7 +8607,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>365</v>
       </c>
@@ -8588,7 +8618,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>366</v>
       </c>
@@ -8599,7 +8629,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>367</v>
       </c>
@@ -8610,7 +8640,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>368</v>
       </c>
@@ -8621,7 +8651,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>369</v>
       </c>
@@ -8632,7 +8662,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>370</v>
       </c>
@@ -8643,7 +8673,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>371</v>
       </c>
@@ -8654,7 +8684,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>372</v>
       </c>
@@ -8665,7 +8695,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>373</v>
       </c>
@@ -8676,7 +8706,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>374</v>
       </c>
@@ -8687,7 +8717,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>375</v>
       </c>
@@ -8698,7 +8728,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>376</v>
       </c>
@@ -8709,7 +8739,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>377</v>
       </c>
@@ -8720,7 +8750,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>378</v>
       </c>
@@ -8731,7 +8761,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>379</v>
       </c>
@@ -8742,7 +8772,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>380</v>
       </c>
@@ -8753,7 +8783,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>381</v>
       </c>
@@ -8764,7 +8794,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>382</v>
       </c>
@@ -8775,7 +8805,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>383</v>
       </c>
@@ -8786,7 +8816,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="385" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>384</v>
       </c>
@@ -8797,7 +8827,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="386" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>385</v>
       </c>
@@ -8808,7 +8838,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="387" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>386</v>
       </c>
@@ -8819,7 +8849,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="388" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>387</v>
       </c>
@@ -8830,7 +8860,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="389" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>388</v>
       </c>
@@ -8846,26 +8876,26 @@
       <c r="F389" t="s">
         <v>597</v>
       </c>
-      <c r="H389" t="s">
+      <c r="I389" t="s">
         <v>599</v>
       </c>
-      <c r="J389">
+      <c r="K389">
         <v>70</v>
       </c>
-      <c r="K389">
+      <c r="L389">
         <v>95</v>
       </c>
-      <c r="L389">
+      <c r="M389">
         <v>500</v>
       </c>
-      <c r="P389" t="s">
+      <c r="R389" t="s">
         <v>28</v>
       </c>
-      <c r="Q389">
+      <c r="S389">
         <v>91</v>
       </c>
     </row>
-    <row r="390" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>389</v>
       </c>
@@ -8881,23 +8911,23 @@
       <c r="F390" t="s">
         <v>600</v>
       </c>
-      <c r="H390" t="s">
+      <c r="I390" t="s">
         <v>602</v>
       </c>
-      <c r="K390">
+      <c r="L390">
         <v>80</v>
       </c>
-      <c r="P390" t="s">
+      <c r="R390" t="s">
         <v>43</v>
       </c>
-      <c r="W390">
+      <c r="Y390">
         <v>100</v>
       </c>
-      <c r="AB390">
+      <c r="AD390">
         <v>1000</v>
       </c>
     </row>
-    <row r="391" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>390</v>
       </c>
@@ -8908,7 +8938,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="392" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>391</v>
       </c>
@@ -8919,7 +8949,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="393" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>392</v>
       </c>
@@ -8930,7 +8960,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="394" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>393</v>
       </c>
@@ -8941,7 +8971,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="395" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>394</v>
       </c>
@@ -8952,7 +8982,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="396" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>395</v>
       </c>
@@ -8963,7 +8993,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="397" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>396</v>
       </c>
@@ -8974,7 +9004,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="398" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>397</v>
       </c>
@@ -8985,7 +9015,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="399" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>398</v>
       </c>
@@ -8996,7 +9026,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="400" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>399</v>
       </c>
@@ -9007,7 +9037,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>400</v>
       </c>
@@ -9018,7 +9048,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>401</v>
       </c>
@@ -9029,7 +9059,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>402</v>
       </c>
@@ -9040,7 +9070,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>403</v>
       </c>
@@ -9051,7 +9081,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>404</v>
       </c>
@@ -9062,7 +9092,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>405</v>
       </c>
@@ -9073,7 +9103,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>406</v>
       </c>
@@ -9084,7 +9114,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>407</v>
       </c>
@@ -9095,7 +9125,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>408</v>
       </c>
@@ -9106,7 +9136,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>409</v>
       </c>
@@ -9117,7 +9147,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>410</v>
       </c>
@@ -9128,7 +9158,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>411</v>
       </c>
@@ -9139,7 +9169,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>412</v>
       </c>
@@ -9150,7 +9180,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>413</v>
       </c>
@@ -9161,7 +9191,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>414</v>
       </c>
@@ -9172,7 +9202,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>415</v>
       </c>
@@ -9183,7 +9213,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>416</v>
       </c>
@@ -9194,7 +9224,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>417</v>
       </c>
@@ -9205,7 +9235,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>418</v>
       </c>
@@ -9216,7 +9246,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>419</v>
       </c>
@@ -9227,7 +9257,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>420</v>
       </c>
@@ -9238,7 +9268,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>421</v>
       </c>
@@ -9249,7 +9279,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>422</v>
       </c>
@@ -9260,7 +9290,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>423</v>
       </c>
@@ -9271,7 +9301,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>424</v>
       </c>
@@ -9282,7 +9312,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>425</v>
       </c>
@@ -9293,7 +9323,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>426</v>
       </c>
@@ -9304,7 +9334,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>427</v>
       </c>
@@ -9315,7 +9345,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>428</v>
       </c>
@@ -9326,7 +9356,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>429</v>
       </c>
@@ -9337,7 +9367,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>430</v>
       </c>
@@ -9348,7 +9378,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>431</v>
       </c>
@@ -9359,7 +9389,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>432</v>
       </c>
@@ -9370,7 +9400,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>433</v>
       </c>
@@ -9381,7 +9411,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>434</v>
       </c>
@@ -9392,7 +9422,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>435</v>
       </c>
@@ -9403,7 +9433,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>436</v>
       </c>
@@ -9414,7 +9444,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>437</v>
       </c>
@@ -9425,7 +9455,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>438</v>
       </c>
@@ -9436,7 +9466,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>439</v>
       </c>
@@ -9447,7 +9477,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>440</v>
       </c>
@@ -9458,7 +9488,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>441</v>
       </c>
@@ -9469,7 +9499,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>442</v>
       </c>
@@ -9480,7 +9510,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>443</v>
       </c>
@@ -9491,7 +9521,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>444</v>
       </c>
@@ -9502,7 +9532,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>445</v>
       </c>
@@ -9513,7 +9543,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>446</v>
       </c>
@@ -9524,7 +9554,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>447</v>
       </c>
@@ -9535,7 +9565,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>448</v>
       </c>
@@ -9546,7 +9576,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>449</v>
       </c>
@@ -9557,7 +9587,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>450</v>
       </c>
@@ -9568,7 +9598,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>451</v>
       </c>
@@ -9579,7 +9609,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>452</v>
       </c>
@@ -9590,7 +9620,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>453</v>
       </c>
@@ -9601,7 +9631,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>454</v>
       </c>
@@ -9612,7 +9642,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>455</v>
       </c>
@@ -9623,7 +9653,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>456</v>
       </c>
@@ -9634,7 +9664,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>457</v>
       </c>
@@ -9645,7 +9675,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>458</v>
       </c>
@@ -9656,7 +9686,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>459</v>
       </c>
@@ -9667,7 +9697,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>460</v>
       </c>
@@ -9678,7 +9708,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>461</v>
       </c>
@@ -9689,7 +9719,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>462</v>
       </c>
@@ -9700,7 +9730,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>463</v>
       </c>
@@ -9711,7 +9741,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>464</v>
       </c>
@@ -9722,7 +9752,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>465</v>
       </c>
@@ -9733,7 +9763,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>466</v>
       </c>
@@ -9744,7 +9774,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>467</v>
       </c>
@@ -9755,7 +9785,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>468</v>
       </c>
@@ -9766,7 +9796,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>469</v>
       </c>
@@ -9777,7 +9807,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>470</v>
       </c>
@@ -9788,7 +9818,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>471</v>
       </c>
@@ -9799,7 +9829,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>472</v>
       </c>
@@ -9810,7 +9840,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>473</v>
       </c>
@@ -9821,7 +9851,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>474</v>
       </c>
@@ -9832,7 +9862,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>475</v>
       </c>
@@ -9843,7 +9873,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>476</v>
       </c>
@@ -9854,7 +9884,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>477</v>
       </c>
@@ -9865,7 +9895,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>478</v>
       </c>
@@ -9876,7 +9906,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>479</v>
       </c>
@@ -9887,7 +9917,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="481" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>480</v>
       </c>
@@ -9898,7 +9928,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="482" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>481</v>
       </c>
@@ -9914,44 +9944,44 @@
       <c r="F482" t="s">
         <v>603</v>
       </c>
-      <c r="H482" t="s">
+      <c r="I482" t="s">
         <v>599</v>
       </c>
-      <c r="Q482">
+      <c r="S482">
         <v>51</v>
       </c>
-      <c r="R482">
+      <c r="T482">
         <v>74</v>
       </c>
-      <c r="S482">
+      <c r="U482">
         <v>67</v>
       </c>
-      <c r="T482">
+      <c r="V482">
         <v>62</v>
       </c>
-      <c r="U482">
+      <c r="W482">
         <v>70</v>
       </c>
-      <c r="V482">
+      <c r="X482">
         <v>98</v>
       </c>
-      <c r="W482">
+      <c r="Y482">
         <v>92</v>
       </c>
-      <c r="Z482">
+      <c r="AB482">
         <v>400</v>
       </c>
-      <c r="AA482">
+      <c r="AC482">
         <v>30</v>
       </c>
-      <c r="AB482">
+      <c r="AD482">
         <v>1000</v>
       </c>
-      <c r="AC482">
+      <c r="AE482">
         <v>50</v>
       </c>
     </row>
-    <row r="483" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>482</v>
       </c>
@@ -9962,7 +9992,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="484" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>483</v>
       </c>
@@ -9973,7 +10003,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="485" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>484</v>
       </c>
@@ -9984,7 +10014,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="486" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>485</v>
       </c>
@@ -9995,7 +10025,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="487" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>486</v>
       </c>
@@ -10006,7 +10036,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="488" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>487</v>
       </c>
@@ -10017,7 +10047,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="489" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>488</v>
       </c>
@@ -10028,7 +10058,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="490" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>489</v>
       </c>
@@ -10039,7 +10069,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="491" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>490</v>
       </c>
@@ -10050,7 +10080,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="492" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>491</v>
       </c>
@@ -10061,7 +10091,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="493" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>492</v>
       </c>
@@ -10072,7 +10102,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="494" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>493</v>
       </c>
@@ -10083,7 +10113,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="495" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>494</v>
       </c>
@@ -10094,7 +10124,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="496" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>495</v>
       </c>
@@ -10105,7 +10135,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>496</v>
       </c>
@@ -10116,7 +10146,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>497</v>
       </c>
@@ -10127,7 +10157,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>498</v>
       </c>
@@ -10138,7 +10168,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>499</v>
       </c>
@@ -10149,7 +10179,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>500</v>
       </c>
@@ -10160,7 +10190,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>501</v>
       </c>
@@ -10171,7 +10201,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>502</v>
       </c>
@@ -10182,7 +10212,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>503</v>
       </c>
@@ -10193,7 +10223,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>504</v>
       </c>
@@ -10204,7 +10234,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>505</v>
       </c>
@@ -10215,7 +10245,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>506</v>
       </c>
@@ -10226,7 +10256,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>507</v>
       </c>
@@ -10237,7 +10267,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>508</v>
       </c>
@@ -10248,7 +10278,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>509</v>
       </c>
@@ -10259,7 +10289,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>510</v>
       </c>
@@ -10270,7 +10300,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>511</v>
       </c>
@@ -10281,7 +10311,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>512</v>
       </c>
@@ -10292,7 +10322,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>513</v>
       </c>
@@ -10303,7 +10333,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>514</v>
       </c>
@@ -10314,7 +10344,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>515</v>
       </c>
@@ -10325,7 +10355,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>516</v>
       </c>
@@ -10336,7 +10366,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>517</v>
       </c>
@@ -10347,7 +10377,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>518</v>
       </c>
@@ -10358,7 +10388,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>519</v>
       </c>
@@ -10369,7 +10399,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>520</v>
       </c>
@@ -10380,7 +10410,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>521</v>
       </c>
@@ -10391,7 +10421,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>522</v>
       </c>
@@ -10402,7 +10432,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>523</v>
       </c>
@@ -10413,7 +10443,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>524</v>
       </c>
@@ -10424,7 +10454,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>525</v>
       </c>
@@ -10435,7 +10465,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>526</v>
       </c>
@@ -10446,7 +10476,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>527</v>
       </c>
@@ -10457,7 +10487,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>528</v>
       </c>
@@ -10468,7 +10498,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>529</v>
       </c>
@@ -10479,7 +10509,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>530</v>
       </c>
@@ -10490,7 +10520,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>531</v>
       </c>
@@ -10501,7 +10531,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>532</v>
       </c>
@@ -10512,7 +10542,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>533</v>
       </c>
@@ -10523,7 +10553,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>534</v>
       </c>
@@ -10534,7 +10564,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>535</v>
       </c>
@@ -10545,7 +10575,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>536</v>
       </c>
@@ -10556,7 +10586,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>537</v>
       </c>
@@ -10567,7 +10597,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>538</v>
       </c>
@@ -10578,7 +10608,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>539</v>
       </c>
@@ -10589,7 +10619,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>540</v>
       </c>
@@ -10600,7 +10630,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>541</v>
       </c>
@@ -10611,7 +10641,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>542</v>
       </c>
@@ -10622,7 +10652,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>543</v>
       </c>
@@ -10633,7 +10663,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>544</v>
       </c>
@@ -10644,7 +10674,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>545</v>
       </c>
@@ -10655,7 +10685,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>546</v>
       </c>
@@ -10666,7 +10696,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>547</v>
       </c>
@@ -10677,7 +10707,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>548</v>
       </c>
@@ -10688,7 +10718,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>549</v>
       </c>
@@ -10699,7 +10729,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>550</v>
       </c>
@@ -10710,7 +10740,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>551</v>
       </c>
@@ -10721,7 +10751,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>552</v>
       </c>
@@ -10732,7 +10762,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>553</v>
       </c>
@@ -10743,7 +10773,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>554</v>
       </c>
@@ -10754,7 +10784,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>555</v>
       </c>
@@ -10765,7 +10795,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>556</v>
       </c>
@@ -10776,7 +10806,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>557</v>
       </c>
@@ -10787,7 +10817,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>558</v>
       </c>
@@ -10798,7 +10828,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>559</v>
       </c>
@@ -10809,7 +10839,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>560</v>
       </c>
@@ -10821,7 +10851,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC561" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AE561" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10834,7 +10864,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10847,7 +10877,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/data/scenario/T1/TN_GEN_CHAR.xlsx
+++ b/public/data/scenario/T1/TN_GEN_CHAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gblee\workspace\genei_web\public\data\scenario\T1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17868F1-C6D1-4D82-9C8C-4517BB4A052D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FBCACB-8A61-4B40-A81E-AA6F119AF291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -4079,9 +4079,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE561"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE8" sqref="AE8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -15509,7 +15509,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
